--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S1/S1_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S1/S1_lossmod.xlsx
@@ -14,270 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>90.84741527037318</t>
-  </si>
-  <si>
-    <t>92.09563023610053</t>
-  </si>
-  <si>
-    <t>92.97672315308454</t>
-  </si>
-  <si>
-    <t>93.9312404798172</t>
-  </si>
-  <si>
-    <t>95.22618006993007</t>
-  </si>
-  <si>
-    <t>96.13397277227722</t>
-  </si>
-  <si>
-    <t>97.01506568926123</t>
-  </si>
-  <si>
-    <t>98.26328065498856</t>
-  </si>
-  <si>
-    <t>99.80519325971058</t>
-  </si>
-  <si>
-    <t>101.42053027418126</t>
-  </si>
-  <si>
-    <t>103.03586728865194</t>
-  </si>
-  <si>
-    <t>104.43093107387662</t>
-  </si>
-  <si>
-    <t>104.76134091774561</t>
-  </si>
-  <si>
-    <t>105.94836887534908</t>
-  </si>
-  <si>
-    <t>107.14763423457731</t>
-  </si>
-  <si>
-    <t>108.0287271515613</t>
-  </si>
-  <si>
-    <t>109.13009329779132</t>
-  </si>
-  <si>
-    <t>110.30488385377</t>
-  </si>
-  <si>
-    <t>111.55309881949734</t>
-  </si>
-  <si>
-    <t>112.87473819497333</t>
-  </si>
-  <si>
-    <t>114.3432263899467</t>
-  </si>
-  <si>
-    <t>115.8851389946687</t>
-  </si>
-  <si>
-    <t>117.42705159939071</t>
-  </si>
-  <si>
-    <t>118.99343900736227</t>
-  </si>
-  <si>
-    <t>120.65772562833206</t>
-  </si>
-  <si>
-    <t>122.27306264280274</t>
-  </si>
-  <si>
-    <t>123.88839965727342</t>
-  </si>
-  <si>
-    <t>125.5037366717441</t>
-  </si>
-  <si>
-    <t>127.11907368621478</t>
-  </si>
-  <si>
-    <t>128.73441070068546</t>
-  </si>
-  <si>
-    <t>130.34974771515613</t>
-  </si>
-  <si>
-    <t>131.96508472962682</t>
-  </si>
-  <si>
-    <t>133.5804217440975</t>
-  </si>
-  <si>
-    <t>135.19575875856816</t>
-  </si>
-  <si>
-    <t>136.81109577303886</t>
-  </si>
-  <si>
-    <t>138.42643278750953</t>
-  </si>
-  <si>
-    <t>140.0417698019802</t>
-  </si>
-  <si>
-    <t>141.6571068164509</t>
-  </si>
-  <si>
-    <t>143.27244383092156</t>
-  </si>
-  <si>
-    <t>144.88778084539223</t>
-  </si>
-  <si>
-    <t>146.50311785986293</t>
-  </si>
-  <si>
-    <t>148.1184548743336</t>
-  </si>
-  <si>
-    <t>149.2198210205636</t>
-  </si>
-  <si>
-    <t>495731.71611024294</t>
-  </si>
-  <si>
-    <t>606830.0432461294</t>
-  </si>
-  <si>
-    <t>738914.0064904857</t>
-  </si>
-  <si>
-    <t>922690.2338881011</t>
-  </si>
-  <si>
-    <t>1138293.4147059289</t>
-  </si>
-  <si>
-    <t>1392855.244882163</t>
-  </si>
-  <si>
-    <t>1755998.4060785105</t>
-  </si>
-  <si>
-    <t>2226428.8126063966</t>
-  </si>
-  <si>
-    <t>2757417.8225427456</t>
-  </si>
-  <si>
-    <t>3041692.186948081</t>
-  </si>
-  <si>
-    <t>2935439.0801841877</t>
-  </si>
-  <si>
-    <t>2619900.5099187493</t>
-  </si>
-  <si>
-    <t>2110546.880170082</t>
-  </si>
-  <si>
-    <t>1568649.0181991407</t>
-  </si>
-  <si>
-    <t>1289871.7513001936</t>
-  </si>
-  <si>
-    <t>1028908.0539267266</t>
-  </si>
-  <si>
-    <t>792146.2964216704</t>
-  </si>
-  <si>
-    <t>625954.8185438851</t>
-  </si>
-  <si>
-    <t>496258.64488713344</t>
-  </si>
-  <si>
-    <t>402722.4807149891</t>
-  </si>
-  <si>
-    <t>319374.0630277784</t>
-  </si>
-  <si>
-    <t>260118.52642595494</t>
-  </si>
-  <si>
-    <t>209011.2526713468</t>
-  </si>
-  <si>
-    <t>174488.1783747197</t>
-  </si>
-  <si>
-    <t>148721.10281189307</t>
-  </si>
-  <si>
-    <t>126329.13083561209</t>
-  </si>
-  <si>
-    <t>108816.13890092388</t>
-  </si>
-  <si>
-    <t>94541.30251416519</t>
-  </si>
-  <si>
-    <t>83813.87278178133</t>
-  </si>
-  <si>
-    <t>74613.08762873147</t>
-  </si>
-  <si>
-    <t>67315.51668394284</t>
-  </si>
-  <si>
-    <t>61384.144702058205</t>
-  </si>
-  <si>
-    <t>57235.52625158345</t>
-  </si>
-  <si>
-    <t>52262.094683713505</t>
-  </si>
-  <si>
-    <t>49363.27695589636</t>
-  </si>
-  <si>
-    <t>46294.27100635141</t>
-  </si>
-  <si>
-    <t>43338.81588872208</t>
-  </si>
-  <si>
-    <t>41172.572901505846</t>
-  </si>
-  <si>
-    <t>39219.241182012534</t>
-  </si>
-  <si>
-    <t>37225.74642854281</t>
-  </si>
-  <si>
-    <t>35744.99451088284</t>
-  </si>
-  <si>
-    <t>34893.2727093099</t>
-  </si>
-  <si>
-    <t>34579.41303937792</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -650,347 +392,347 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
+      <c r="A2">
+        <v>90.84741527037318</v>
+      </c>
+      <c r="B2">
+        <v>495731.7161102429</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
+      <c r="A3">
+        <v>92.09563023610053</v>
+      </c>
+      <c r="B3">
+        <v>606830.0432461294</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
+      <c r="A4">
+        <v>92.97672315308454</v>
+      </c>
+      <c r="B4">
+        <v>738914.0064904857</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
+      <c r="A5">
+        <v>93.93124047981721</v>
+      </c>
+      <c r="B5">
+        <v>922690.2338881011</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
+      <c r="A6">
+        <v>95.22618006993007</v>
+      </c>
+      <c r="B6">
+        <v>1138293.414705929</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
+      <c r="A7">
+        <v>96.13397277227722</v>
+      </c>
+      <c r="B7">
+        <v>1392855.244882163</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="A8">
+        <v>97.01506568926123</v>
+      </c>
+      <c r="B8">
+        <v>1755998.40607851</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
+      <c r="A9">
+        <v>98.26328065498856</v>
+      </c>
+      <c r="B9">
+        <v>2226428.812606397</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
+      <c r="A10">
+        <v>99.80519325971058</v>
+      </c>
+      <c r="B10">
+        <v>2757417.822542746</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
+      <c r="A11">
+        <v>101.4205302741813</v>
+      </c>
+      <c r="B11">
+        <v>3041692.186948081</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
+      <c r="A12">
+        <v>103.0358672886519</v>
+      </c>
+      <c r="B12">
+        <v>2935439.080184188</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="A13">
+        <v>104.4309310738766</v>
+      </c>
+      <c r="B13">
+        <v>2619900.509918749</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
+      <c r="A14">
+        <v>104.7613409177456</v>
+      </c>
+      <c r="B14">
+        <v>2110546.880170082</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
+      <c r="A15">
+        <v>105.9483688753491</v>
+      </c>
+      <c r="B15">
+        <v>1568649.018199141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
+      <c r="A16">
+        <v>107.1476342345773</v>
+      </c>
+      <c r="B16">
+        <v>1289871.751300194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
+      <c r="A17">
+        <v>108.0287271515613</v>
+      </c>
+      <c r="B17">
+        <v>1028908.053926727</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
+      <c r="A18">
+        <v>109.1300932977913</v>
+      </c>
+      <c r="B18">
+        <v>792146.2964216704</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
+      <c r="A19">
+        <v>110.30488385377</v>
+      </c>
+      <c r="B19">
+        <v>625954.8185438851</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
+      <c r="A20">
+        <v>111.5530988194973</v>
+      </c>
+      <c r="B20">
+        <v>496258.6448871334</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
+      <c r="A21">
+        <v>112.8747381949733</v>
+      </c>
+      <c r="B21">
+        <v>402722.4807149891</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
+      <c r="A22">
+        <v>114.3432263899467</v>
+      </c>
+      <c r="B22">
+        <v>319374.0630277784</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
+      <c r="A23">
+        <v>115.8851389946687</v>
+      </c>
+      <c r="B23">
+        <v>260118.5264259549</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
+      <c r="A24">
+        <v>117.4270515993907</v>
+      </c>
+      <c r="B24">
+        <v>209011.2526713468</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
+      <c r="A25">
+        <v>118.9934390073623</v>
+      </c>
+      <c r="B25">
+        <v>174488.1783747197</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
+      <c r="A26">
+        <v>120.6577256283321</v>
+      </c>
+      <c r="B26">
+        <v>148721.1028118931</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
+      <c r="A27">
+        <v>122.2730626428027</v>
+      </c>
+      <c r="B27">
+        <v>126329.1308356121</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
+      <c r="A28">
+        <v>123.8883996572734</v>
+      </c>
+      <c r="B28">
+        <v>108816.1389009239</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
+      <c r="A29">
+        <v>125.5037366717441</v>
+      </c>
+      <c r="B29">
+        <v>94541.30251416519</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
+      <c r="A30">
+        <v>127.1190736862148</v>
+      </c>
+      <c r="B30">
+        <v>83813.87278178133</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
+      <c r="A31">
+        <v>128.7344107006855</v>
+      </c>
+      <c r="B31">
+        <v>74613.08762873147</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
+      <c r="A32">
+        <v>130.3497477151561</v>
+      </c>
+      <c r="B32">
+        <v>67315.51668394284</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
+      <c r="A33">
+        <v>131.9650847296268</v>
+      </c>
+      <c r="B33">
+        <v>61384.14470205821</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
+      <c r="A34">
+        <v>133.5804217440975</v>
+      </c>
+      <c r="B34">
+        <v>57235.52625158345</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
+      <c r="A35">
+        <v>135.1957587585682</v>
+      </c>
+      <c r="B35">
+        <v>52262.09468371351</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
+      <c r="A36">
+        <v>136.8110957730389</v>
+      </c>
+      <c r="B36">
+        <v>49363.27695589636</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
+      <c r="A37">
+        <v>138.4264327875095</v>
+      </c>
+      <c r="B37">
+        <v>46294.27100635141</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
+      <c r="A38">
+        <v>140.0417698019802</v>
+      </c>
+      <c r="B38">
+        <v>43338.81588872208</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
+      <c r="A39">
+        <v>141.6571068164509</v>
+      </c>
+      <c r="B39">
+        <v>41172.57290150585</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
+      <c r="A40">
+        <v>143.2724438309216</v>
+      </c>
+      <c r="B40">
+        <v>39219.24118201253</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
+      <c r="A41">
+        <v>144.8877808453922</v>
+      </c>
+      <c r="B41">
+        <v>37225.74642854281</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
+      <c r="A42">
+        <v>146.5031178598629</v>
+      </c>
+      <c r="B42">
+        <v>35744.99451088284</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
+      <c r="A43">
+        <v>148.1184548743336</v>
+      </c>
+      <c r="B43">
+        <v>34893.2727093099</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
+      <c r="A44">
+        <v>149.2198210205636</v>
+      </c>
+      <c r="B44">
+        <v>34579.41303937792</v>
       </c>
     </row>
   </sheetData>
